--- a/biology/Zoologie/Beierolpium_clarum/Beierolpium_clarum.xlsx
+++ b/biology/Zoologie/Beierolpium_clarum/Beierolpium_clarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beierolpium clarum est une espèce de pseudoscorpions de la famille des Olpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Selangor en Malaisie[1]. Elle se rencontre vers Sungai Buloh.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Selangor en Malaisie. Elle se rencontre vers Sungai Buloh.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 1,5 à 1,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 1,5 à 1,6 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Indolpium clarum par Beier en 1952. Elle est placée dans le genre Xenolpium par Beier en 1967[3] puis dans le genre Beierolpium par Heurtault en 1980[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Indolpium clarum par Beier en 1952. Elle est placée dans le genre Xenolpium par Beier en 1967 puis dans le genre Beierolpium par Heurtault en 1980.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Beier, 1952 : On some Pseudoscorpionidea from Malaya and Borneo. Bulletin of the Raffles Museum, vol. 24, p. 96-108 (texte intégral).</t>
         </is>
